--- a/BackLog.xlsx
+++ b/BackLog.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alessandrospinabelli/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alessandrospinabelli/Desktop/Progetto4Cit_Gruppo4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3ED47EEE-5F37-CA4A-8D90-5DCD7079A6FD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7FEC15E-7573-E043-8A84-8927EDBA320C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16640" xr2:uid="{2B94EBC1-71C0-014E-B79B-D99FF08EB73E}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="49">
   <si>
     <t>spina</t>
   </si>
@@ -96,18 +96,12 @@
     <t>ricerca collection</t>
   </si>
   <si>
-    <t>Sprint 4</t>
-  </si>
-  <si>
     <t>salvataggio su file</t>
   </si>
   <si>
     <t>diagramma classe prenotazione e aggreggato</t>
   </si>
   <si>
-    <t>sprint  2</t>
-  </si>
-  <si>
     <t>classe contenitore clienti</t>
   </si>
   <si>
@@ -120,9 +114,6 @@
     <t>interfaccia aeroporto/cliente</t>
   </si>
   <si>
-    <t>sprint 3</t>
-  </si>
-  <si>
     <t>java fx</t>
   </si>
   <si>
@@ -169,6 +160,24 @@
   </si>
   <si>
     <t>Yes</t>
+  </si>
+  <si>
+    <t>in progress</t>
+  </si>
+  <si>
+    <t>Diagramma casi d'uso cliente</t>
+  </si>
+  <si>
+    <t>sprint  3</t>
+  </si>
+  <si>
+    <t>sprint 4</t>
+  </si>
+  <si>
+    <t>Sprint 5</t>
+  </si>
+  <si>
+    <t>sprint 2</t>
   </si>
 </sst>
 </file>
@@ -253,8 +262,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{49ABB637-F374-0848-A015-468AC80EB44D}" name="Tabella1" displayName="Tabella1" ref="D8:I43" totalsRowShown="0">
-  <autoFilter ref="D8:I43" xr:uid="{90CD34EA-03A0-AD4E-BD5D-A22A5392312E}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{49ABB637-F374-0848-A015-468AC80EB44D}" name="Tabella1" displayName="Tabella1" ref="D8:I59" totalsRowShown="0">
+  <autoFilter ref="D8:I59" xr:uid="{90CD34EA-03A0-AD4E-BD5D-A22A5392312E}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{2DD23B5F-A5E0-C044-BD02-8D5055D5746F}" name="TASK NAME"/>
     <tableColumn id="2" xr3:uid="{6B10B299-6F79-754F-AC6B-7A1E2C374277}" name="Sprint ready"/>
@@ -564,10 +573,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A9ED657-EFA2-B14A-900A-4F0ED265792F}">
-  <dimension ref="C5:N43"/>
+  <dimension ref="C5:N49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B6" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -626,7 +635,7 @@
         <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F10" t="s">
         <v>12</v>
@@ -640,7 +649,7 @@
     </row>
     <row r="11" spans="3:14" x14ac:dyDescent="0.2">
       <c r="D11" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E11" t="s">
         <v>14</v>
@@ -660,7 +669,7 @@
     </row>
     <row r="12" spans="3:14" x14ac:dyDescent="0.2">
       <c r="D12" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E12" t="s">
         <v>14</v>
@@ -669,19 +678,19 @@
         <v>12</v>
       </c>
       <c r="G12" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="H12" t="s">
         <v>13</v>
       </c>
       <c r="I12" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1"/>
       <c r="D13" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E13" t="s">
         <v>14</v>
@@ -702,7 +711,7 @@
     <row r="14" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1"/>
       <c r="D14" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E14" t="s">
         <v>14</v>
@@ -711,13 +720,13 @@
         <v>12</v>
       </c>
       <c r="G14" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="H14" t="s">
         <v>13</v>
       </c>
       <c r="I14" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
@@ -725,7 +734,7 @@
     <row r="15" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1"/>
       <c r="D15" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E15" t="s">
         <v>14</v>
@@ -747,7 +756,7 @@
     </row>
     <row r="16" spans="3:14" x14ac:dyDescent="0.2">
       <c r="D16" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E16" t="s">
         <v>14</v>
@@ -770,7 +779,7 @@
     <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1"/>
       <c r="D17" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E17" t="s">
         <v>14</v>
@@ -791,7 +800,7 @@
     <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1"/>
       <c r="D18" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E18" t="s">
         <v>14</v>
@@ -812,7 +821,7 @@
     </row>
     <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="D19" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E19" t="s">
         <v>14</v>
@@ -833,7 +842,7 @@
     </row>
     <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="D20" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E20" t="s">
         <v>14</v>
@@ -842,7 +851,7 @@
         <v>12</v>
       </c>
       <c r="G20" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="H20" t="s">
         <v>13</v>
@@ -873,7 +882,7 @@
     </row>
     <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="D22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E22" t="s">
         <v>14</v>
@@ -893,7 +902,7 @@
     </row>
     <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="D23" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E23" t="s">
         <v>14</v>
@@ -911,89 +920,123 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
-      <c r="D25" t="s">
-        <v>24</v>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="D24" t="s">
+        <v>44</v>
+      </c>
+      <c r="E24" t="s">
+        <v>14</v>
+      </c>
+      <c r="F24" t="s">
+        <v>12</v>
+      </c>
+      <c r="G24" t="s">
+        <v>43</v>
+      </c>
+      <c r="H24" t="s">
+        <v>13</v>
+      </c>
+      <c r="I24" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="D26" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
     </row>
     <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="D27" t="s">
-        <v>17</v>
+        <v>16</v>
+      </c>
+      <c r="I27" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="D28" t="s">
-        <v>18</v>
+        <v>20</v>
+      </c>
+      <c r="I28" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="D29" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
-      <c r="D30" t="s">
-        <v>25</v>
+        <v>27</v>
+      </c>
+      <c r="I29" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="D31" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
     </row>
     <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="D32" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
     </row>
     <row r="33" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D33" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="34" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D34" t="s">
-        <v>30</v>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="35" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D35" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="36" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D36" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="37" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D37" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="38" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D38" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="39" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D39" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="41" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D41" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="42" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D42" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="43" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D43" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="44" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D44" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="45" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D45" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="47" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D47" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="48" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D48" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="42" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D42" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="43" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D43" s="3" t="s">
-        <v>28</v>
+    <row r="49" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D49" s="3" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
